--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nppa-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nppa-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Npr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.188121</v>
+        <v>0.1893306666666667</v>
       </c>
       <c r="H2">
-        <v>0.5643629999999999</v>
+        <v>0.5679920000000001</v>
       </c>
       <c r="I2">
+        <v>0.6308162521878971</v>
+      </c>
+      <c r="J2">
+        <v>0.6308162521878971</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>16.03372966666667</v>
+        <v>13.65974866666667</v>
       </c>
       <c r="N2">
-        <v>48.10118900000001</v>
+        <v>40.979246</v>
       </c>
       <c r="O2">
-        <v>0.4163765289383711</v>
+        <v>0.383515069756994</v>
       </c>
       <c r="P2">
-        <v>0.416376528938371</v>
+        <v>0.3835150697569941</v>
       </c>
       <c r="Q2">
-        <v>3.016281258623</v>
+        <v>2.586209321559112</v>
       </c>
       <c r="R2">
-        <v>27.146531327607</v>
+        <v>23.275883894032</v>
       </c>
       <c r="S2">
-        <v>0.4163765289383711</v>
+        <v>0.2419275389616869</v>
       </c>
       <c r="T2">
-        <v>0.416376528938371</v>
+        <v>0.2419275389616869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.188121</v>
+        <v>0.1893306666666667</v>
       </c>
       <c r="H3">
-        <v>0.5643629999999999</v>
+        <v>0.5679920000000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6308162521878971</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6308162521878971</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>51.314085</v>
       </c>
       <c r="O3">
-        <v>0.444188200793717</v>
+        <v>0.4802363832729211</v>
       </c>
       <c r="P3">
-        <v>0.4441882007937169</v>
+        <v>0.4802363832729211</v>
       </c>
       <c r="Q3">
-        <v>3.217752328095</v>
+        <v>3.23844330748</v>
       </c>
       <c r="R3">
-        <v>28.959770952855</v>
+        <v>29.14598976732</v>
       </c>
       <c r="S3">
-        <v>0.444188200793717</v>
+        <v>0.3029409154604946</v>
       </c>
       <c r="T3">
-        <v>0.4441882007937169</v>
+        <v>0.3029409154604946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.188121</v>
+        <v>0.1893306666666667</v>
       </c>
       <c r="H4">
-        <v>0.5643629999999999</v>
+        <v>0.5679920000000001</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6308162521878971</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6308162521878971</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.369340666666666</v>
+        <v>4.852797333333333</v>
       </c>
       <c r="N4">
-        <v>16.108022</v>
+        <v>14.558392</v>
       </c>
       <c r="O4">
-        <v>0.139435270267912</v>
+        <v>0.1362485469700849</v>
       </c>
       <c r="P4">
-        <v>0.139435270267912</v>
+        <v>0.1362485469700849</v>
       </c>
       <c r="Q4">
-        <v>1.010085735554</v>
+        <v>0.9187833543182222</v>
       </c>
       <c r="R4">
-        <v>9.090771619985999</v>
+        <v>8.269050188864</v>
       </c>
       <c r="S4">
-        <v>0.139435270267912</v>
+        <v>0.08594779776571561</v>
       </c>
       <c r="T4">
-        <v>0.139435270267912</v>
+        <v>0.08594779776571561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1108053333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.332416</v>
+      </c>
+      <c r="I5">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="J5">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.65974866666667</v>
+      </c>
+      <c r="N5">
+        <v>40.979246</v>
+      </c>
+      <c r="O5">
+        <v>0.383515069756994</v>
+      </c>
+      <c r="P5">
+        <v>0.3835150697569941</v>
+      </c>
+      <c r="Q5">
+        <v>1.513573004259555</v>
+      </c>
+      <c r="R5">
+        <v>13.622157038336</v>
+      </c>
+      <c r="S5">
+        <v>0.1415875307953071</v>
+      </c>
+      <c r="T5">
+        <v>0.1415875307953071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1108053333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.332416</v>
+      </c>
+      <c r="I6">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="J6">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>17.104695</v>
+      </c>
+      <c r="N6">
+        <v>51.314085</v>
+      </c>
+      <c r="O6">
+        <v>0.4802363832729211</v>
+      </c>
+      <c r="P6">
+        <v>0.4802363832729211</v>
+      </c>
+      <c r="Q6">
+        <v>1.89529143104</v>
+      </c>
+      <c r="R6">
+        <v>17.05762287936</v>
+      </c>
+      <c r="S6">
+        <v>0.1772954678124265</v>
+      </c>
+      <c r="T6">
+        <v>0.1772954678124265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1108053333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.332416</v>
+      </c>
+      <c r="I7">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="J7">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.852797333333333</v>
+      </c>
+      <c r="N7">
+        <v>14.558392</v>
+      </c>
+      <c r="O7">
+        <v>0.1362485469700849</v>
+      </c>
+      <c r="P7">
+        <v>0.1362485469700849</v>
+      </c>
+      <c r="Q7">
+        <v>0.5377158261191111</v>
+      </c>
+      <c r="R7">
+        <v>4.839442435072</v>
+      </c>
+      <c r="S7">
+        <v>0.05030074920436928</v>
+      </c>
+      <c r="T7">
+        <v>0.05030074920436928</v>
       </c>
     </row>
   </sheetData>
